--- a/docss/trend/unitedkingdom/E_neuron.xlsx
+++ b/docss/trend/unitedkingdom/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\unitedkingdom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\unitedkingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,202 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>2.1027428430970758</v>
+        <v>2.1030000000000002</v>
       </c>
       <c r="C2" s="6">
-        <v>2.5513423262163997</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="D2" s="6">
-        <v>1.738830357324332</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>1.7390000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>2.1631381775951013</v>
+        <v>2.1629999999999998</v>
       </c>
       <c r="C3" s="6">
-        <v>2.6542626367881894</v>
+        <v>2.6539999999999999</v>
       </c>
       <c r="D3" s="6">
-        <v>1.7796027464792132</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>1.78</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>2.1409686200786382</v>
+        <v>2.141</v>
       </c>
       <c r="C4" s="6">
-        <v>2.6136306934058666</v>
+        <v>2.6139999999999999</v>
       </c>
       <c r="D4" s="6">
-        <v>1.7471395314205438</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>1.7470000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>2.1507910045329481</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="C5" s="6">
-        <v>2.6391163100488484</v>
+        <v>2.6389999999999998</v>
       </c>
       <c r="D5" s="6">
-        <v>1.7393613134045154</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>1.7390000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>2.1992809290532023</v>
+        <v>2.1989999999999998</v>
       </c>
       <c r="C6" s="6">
-        <v>2.761064789025113</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>1.7345269026700407</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>1.7350000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>2.3031741088489071</v>
+        <v>2.3029999999999999</v>
       </c>
       <c r="C7" s="6">
-        <v>2.8541865081060678</v>
+        <v>2.8540000000000001</v>
       </c>
       <c r="D7" s="6">
-        <v>1.8551947264932096</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>1.855</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>2.3177418883424252</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="C8" s="6">
-        <v>2.8584235471207649</v>
+        <v>2.8580000000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>1.8764172110240906</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>1.8759999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>2.3420574120245874</v>
+        <v>2.3420000000000001</v>
       </c>
       <c r="C9" s="6">
-        <v>2.7969634241890162</v>
+        <v>2.7970000000000002</v>
       </c>
       <c r="D9" s="6">
-        <v>1.9652155893854797</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>1.9650000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>2.376674284809269</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="C10" s="6">
-        <v>2.8954830472357571</v>
+        <v>2.895</v>
       </c>
       <c r="D10" s="6">
-        <v>1.9530028193257749</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>1.9530000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>2.4992789761163294</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>3.0853994698263705</v>
+        <v>3.085</v>
       </c>
       <c r="D11" s="6">
-        <v>2.0019712711218745</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>2.0019999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>2.460026030195877</v>
+        <v>2.46</v>
       </c>
       <c r="C12" s="6">
-        <v>2.9287684999871999</v>
+        <v>2.9289999999999998</v>
       </c>
       <c r="D12" s="6">
-        <v>2.0665703287813812</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>2.0670000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>2.6949101346544921</v>
+        <v>2.6949999999999998</v>
       </c>
       <c r="C13" s="6">
-        <v>3.2531525467056781</v>
+        <v>3.2530000000000001</v>
       </c>
       <c r="D13" s="6">
-        <v>2.2374951804522425</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>2.2370000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>2.6388265601126477</v>
+        <v>2.6389999999999998</v>
       </c>
       <c r="C14" s="6">
-        <v>3.2701842905953526</v>
+        <v>3.27</v>
       </c>
       <c r="D14" s="6">
-        <v>2.1067860496696085</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>2.1070000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
